--- a/input-test.xlsx
+++ b/input-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\mutm-utm-conversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75584C61-64BC-4AF3-B630-A382387446AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB35C584-FB32-4482-89D8-8C87954B5D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,6 @@
     <t>Point</t>
   </si>
   <si>
-    <t>Easting</t>
-  </si>
-  <si>
-    <t>Northing</t>
-  </si>
-  <si>
     <t>ARP03</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>Helipad B</t>
+  </si>
+  <si>
+    <t>UTM_Northing</t>
+  </si>
+  <si>
+    <t>UTM_Easting</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,131 +420,131 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>3064905.4019999998</v>
+      </c>
+      <c r="C2">
         <v>634413.73939999996</v>
-      </c>
-      <c r="C2">
-        <v>3064905.4019999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
+        <v>3065117.858</v>
+      </c>
+      <c r="C3">
         <v>634027.2585</v>
-      </c>
-      <c r="C3">
-        <v>3065117.858</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
+        <v>3065239.6170000001</v>
+      </c>
+      <c r="C4">
         <v>634483.17740000004</v>
-      </c>
-      <c r="C4">
-        <v>3065239.6170000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5">
+        <v>3066440.7489999998</v>
+      </c>
+      <c r="C5">
         <v>634785.47600000002</v>
-      </c>
-      <c r="C5">
-        <v>3066440.7489999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
+        <v>3066022.4879999999</v>
+      </c>
+      <c r="C6">
         <v>635176.70429999998</v>
-      </c>
-      <c r="C6">
-        <v>3066022.4879999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
+        <v>3064970.699</v>
+      </c>
+      <c r="C7">
         <v>634921.66429999995</v>
-      </c>
-      <c r="C7">
-        <v>3064970.699</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
+        <v>3062986.7059999998</v>
+      </c>
+      <c r="C8">
         <v>633494.15489999996</v>
-      </c>
-      <c r="C8">
-        <v>3062986.7059999998</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
+        <v>3063734.8489999999</v>
+      </c>
+      <c r="C9">
         <v>633386.58970000001</v>
-      </c>
-      <c r="C9">
-        <v>3063734.8489999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
+        <v>3066570.4989999998</v>
+      </c>
+      <c r="C10">
         <v>634338.69709999999</v>
-      </c>
-      <c r="C10">
-        <v>3066570.4989999998</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
+        <v>3066303.77</v>
+      </c>
+      <c r="C11">
         <v>633979.07649999997</v>
-      </c>
-      <c r="C11">
-        <v>3066303.77</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
+        <v>3065346.8418999999</v>
+      </c>
+      <c r="C12">
         <v>634677.52899999998</v>
-      </c>
-      <c r="C12">
-        <v>3065346.8418999999</v>
       </c>
     </row>
   </sheetData>
